--- a/routers/upload/司机模板.xlsx
+++ b/routers/upload/司机模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500"/>
+    <workbookView windowWidth="17925" windowHeight="7590" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="司机导入" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,21 +94,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体 (正文)"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,47 +128,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,11 +150,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,21 +190,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +236,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,108 +271,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,42 +433,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -421,18 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,21 +450,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,16 +463,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +494,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -514,32 +515,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,7 +568,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,128 +577,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -705,6 +712,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1055,7 +1065,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1083,7 +1093,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -1092,7 +1102,7 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1109,16 +1119,16 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>9</v>
       </c>
     </row>

--- a/routers/upload/司机模板.xlsx
+++ b/routers/upload/司机模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\ntocc_web\routers\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B32650-5D99-41B3-A3E0-6138198E7B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AAC1CF-55C9-4BC2-97BE-6D968B9FB1CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="810" windowWidth="27435" windowHeight="14790" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="司机导入" sheetId="3" r:id="rId1"/>
@@ -86,24 +86,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -113,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,13 +119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,31 +138,31 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -472,71 +463,71 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="24.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/routers/upload/司机模板.xlsx
+++ b/routers/upload/司机模板.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\ntocc_web\routers\upload\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AAC1CF-55C9-4BC2-97BE-6D968B9FB1CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="810" windowWidth="27435" windowHeight="14790" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="司机导入" sheetId="3" r:id="rId1"/>
@@ -76,8 +70,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,13 +104,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,12 +264,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -132,12 +463,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,34 +730,79 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -451,83 +1070,90 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="24.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9.74814814814815" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.2518518518519" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5037037037037" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.74814814814815" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.1259259259259" style="4" customWidth="1"/>
+    <col min="6" max="7" width="24.6222222222222" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.2518518518519" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="18" spans="1:8">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2 D3:D1048576">
+      <formula1>"C1,C2,B1,B2,A1,A2,A3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/routers/upload/司机模板.xlsx
+++ b/routers/upload/司机模板.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67772386-6476-4273-AE04-DA513A21F825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20325" windowHeight="11670" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="司机导入" sheetId="3" r:id="rId1"/>
@@ -76,8 +70,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,13 +104,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,12 +264,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -132,9 +463,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -168,24 +741,68 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -453,29 +1070,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="34.125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="24.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.74814814814815" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.2518518518519" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5037037037037" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.74814814814815" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.1259259259259" style="4" customWidth="1"/>
+    <col min="6" max="7" width="24.6222222222222" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.2518518518519" style="5" customWidth="1"/>
     <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" ht="18" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -501,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -528,13 +1147,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2 D3:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2 D3:D1048576">
       <formula1>"C1,C2,B1,B2,A1,A2,A3"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>